--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="-420" windowWidth="27300" windowHeight="18900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>STRAIN-BIOREP HYBRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>One of Lin, Log2, Log10, or Ln</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,9 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HumanReadable</t>
-  </si>
-  <si>
     <t>Experiment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,12 +90,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GeneLocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRAIN-BIOREP HYBRID</t>
+  </si>
+  <si>
+    <t>STRAIN-BIOREP HYBRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must be STRAIN-BIOREP HYBRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Data Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Data Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first row with data — the one that contains the column headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first column with data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>Biological replicate</t>
+  </si>
+  <si>
+    <t>Technical replicate</t>
+  </si>
+  <si>
+    <t>hybridization number</t>
+  </si>
+  <si>
+    <t>Locustag</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ProbesNumber</t>
   </si>
 </sst>
 </file>
@@ -136,12 +189,30 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -174,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -184,6 +255,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,28 +592,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -556,18 +635,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -583,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,13 +670,46 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
@@ -611,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -622,20 +734,72 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="-420" windowWidth="27300" windowHeight="18900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3400" yWindow="-420" windowWidth="27300" windowHeight="18900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>STRAIN-BIOREP HYBRID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Value Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
   </si>
   <si>
     <t>The openBIS experiment identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Strain Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -592,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -622,31 +614,31 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -654,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -662,54 +654,45 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="9">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
@@ -725,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +724,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -750,7 +733,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -759,7 +742,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -768,7 +751,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -776,19 +759,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -799,7 +782,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
